--- a/src/test/resources/controller/execution_controller.xlsx
+++ b/src/test/resources/controller/execution_controller.xlsx
@@ -4,25 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="7" r:id="rId1"/>
     <sheet name="ops_signin" sheetId="4" r:id="rId2"/>
     <sheet name="doctor_signin" sheetId="5" r:id="rId3"/>
     <sheet name="vendor_signin" sheetId="6" r:id="rId4"/>
-    <sheet name="ops" sheetId="8" r:id="rId5"/>
-    <sheet name="doctor" sheetId="9" r:id="rId6"/>
-    <sheet name="vendor" sheetId="10" r:id="rId7"/>
-    <sheet name="test_scenarios" sheetId="11" r:id="rId8"/>
-    <sheet name="maxlife_questions" sheetId="12" r:id="rId9"/>
+    <sheet name="new_case" sheetId="8" r:id="rId5"/>
+    <sheet name="vendor" sheetId="10" r:id="rId6"/>
+    <sheet name="test_scenarios" sheetId="11" r:id="rId7"/>
+    <sheet name="maxlife_questions" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="78">
   <si>
     <t>Username</t>
   </si>
@@ -69,9 +68,6 @@
     <t>DiagnoseCaseTest</t>
   </si>
   <si>
-    <t>ops@docsapp.in to test</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -241,6 +237,24 @@
   </si>
   <si>
     <t>A1001</t>
+  </si>
+  <si>
+    <t>Doctor Name</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>Dr. Priya</t>
+  </si>
+  <si>
+    <t>dr.priya@docsapp.in</t>
+  </si>
+  <si>
+    <t>ops</t>
+  </si>
+  <si>
+    <t>ops@docsapp.in</t>
   </si>
 </sst>
 </file>
@@ -683,31 +697,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -718,31 +739,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -753,31 +792,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -788,10 +834,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -814,102 +860,96 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>57</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>58</v>
-      </c>
-      <c r="N1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
       <c r="J2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
       <c r="B3" s="7"/>
-      <c r="I3" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="7"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="7"/>
-      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" s="7"/>
@@ -962,12 +1002,9 @@
     <row r="22" spans="2:2">
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="7"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G18">
       <formula1>"Male, Female"</formula1>
     </dataValidation>
   </dataValidations>
@@ -977,18 +1014,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1002,7 +1027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1029,7 +1054,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1045,7 +1070,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1053,7 +1078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -1071,424 +1096,424 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="12">
       <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="24.75">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="36.75">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="24.75">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="36.75">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="24.75">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="36.75">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="24.75">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24.75">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="36.75">
       <c r="A13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="36.75">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="24.75">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="24.75">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="60.75">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="48.75">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="60.75">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="36.75">
       <c r="A20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="24.75">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/controller/execution_controller.xlsx
+++ b/src/test/resources/controller/execution_controller.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="7" r:id="rId1"/>
@@ -699,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -938,7 +938,7 @@
         <v>67</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:14">

--- a/src/test/resources/controller/execution_controller.xlsx
+++ b/src/test/resources/controller/execution_controller.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="75">
   <si>
     <t>Username</t>
   </si>
@@ -59,18 +59,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>AddNewCaseTest</t>
-  </si>
-  <si>
-    <t>AssignCaseTest</t>
-  </si>
-  <si>
-    <t>DiagnoseCaseTest</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Are you pregnant ?</t>
   </si>
   <si>
@@ -80,9 +68,6 @@
     <t>Any history of chest pain, heart attack, palpitations, and breathlessness on exertion or irregular heart beat ?</t>
   </si>
   <si>
-    <t>Hypertension or high blood pressure/high cholesterol?</t>
-  </si>
-  <si>
     <t>High blood sugar/ Diabetes</t>
   </si>
   <si>
@@ -116,9 +101,6 @@
     <t>Disorder of back, muscle, joints, bone, neck, deformity, amputation, arthritis or gout</t>
   </si>
   <si>
-    <t>In the last 5 years, have you had or been advised to have or in the next 30 days will you have an X-ray/ CT Scan / MRI / ECG / TMT / blood test or any other investigatory or diagnostic tests or any type of surgery?</t>
-  </si>
-  <si>
     <t>Do you or your spouse has been tested positive or is under treatment for HIV / AIDS / Sexually transmitted diseases (e.g. syphilis, gonorrhea, etc.) ?</t>
   </si>
   <si>
@@ -206,9 +188,6 @@
     <t>TestNom</t>
   </si>
   <si>
-    <t>HKJ3WU44KL</t>
-  </si>
-  <si>
     <t>TestMaxLife</t>
   </si>
   <si>
@@ -218,9 +197,6 @@
     <t>2222222222</t>
   </si>
   <si>
-    <t>9916080161</t>
-  </si>
-  <si>
     <t>01-10-1992</t>
   </si>
   <si>
@@ -236,9 +212,6 @@
     <t>Dr. Abhijeet</t>
   </si>
   <si>
-    <t>A1001</t>
-  </si>
-  <si>
     <t>Doctor Name</t>
   </si>
   <si>
@@ -255,6 +228,24 @@
   </si>
   <si>
     <t>ops@docsapp.in</t>
+  </si>
+  <si>
+    <t>Hypertension or high blood pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the last 5 years, have you had or been advised to have or in the next 30 days will you have an X-ray/ CT Scan </t>
+  </si>
+  <si>
+    <t>8892230636</t>
+  </si>
+  <si>
+    <t>HKJ3WU45KL</t>
+  </si>
+  <si>
+    <t>A1006</t>
+  </si>
+  <si>
+    <t>Case_01_Test</t>
   </si>
 </sst>
 </file>
@@ -712,7 +703,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -723,10 +714,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -754,7 +745,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -765,7 +756,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -776,10 +767,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -807,7 +798,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -818,7 +809,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -836,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -860,85 +851,85 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>52</v>
-      </c>
-      <c r="I1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1029,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1051,29 +1042,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B14">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1083,7 +1063,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1096,424 +1076,427 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="12">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="24.75">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="36.75">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="24.75">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="36.75">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="24.75">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="36.75">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="24.75">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24.75">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="36.75">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="36.75">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="24.75">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="24.75">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60.75">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="36.75">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="48.75">
       <c r="A18" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="60.75">
       <c r="A19" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="36.75">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="24.75">
       <c r="A21" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/controller/execution_controller.xlsx
+++ b/src/test/resources/controller/execution_controller.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="82">
   <si>
     <t>Username</t>
   </si>
@@ -200,9 +200,6 @@
     <t>01-10-1992</t>
   </si>
   <si>
-    <t>13-12-1965</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -236,16 +233,40 @@
     <t xml:space="preserve">In the last 5 years, have you had or been advised to have or in the next 30 days will you have an X-ray/ CT Scan </t>
   </si>
   <si>
-    <t>8892230636</t>
-  </si>
-  <si>
     <t>HKJ3WU45KL</t>
   </si>
   <si>
-    <t>A1006</t>
-  </si>
-  <si>
     <t>Case_01_Test</t>
+  </si>
+  <si>
+    <t>Height (cms/foot)</t>
+  </si>
+  <si>
+    <t>Weight (KGs)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>8892230630</t>
+  </si>
+  <si>
+    <t>8892212636</t>
+  </si>
+  <si>
+    <t>1965-10-12</t>
+  </si>
+  <si>
+    <t>8892212136</t>
+  </si>
+  <si>
+    <t>881321331</t>
   </si>
 </sst>
 </file>
@@ -333,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -348,6 +369,9 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,10 +738,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -745,7 +769,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -756,7 +780,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -767,10 +791,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -798,7 +822,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -827,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -898,13 +922,13 @@
         <v>53</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>57</v>
@@ -913,27 +937,63 @@
         <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
         <v>56</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
         <v>54</v>
       </c>
       <c r="M2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3" s="7"/>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="7"/>
@@ -1022,7 +1082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1042,7 +1102,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -1060,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1085,7 +1145,7 @@
         <v>35</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>35</v>
@@ -1144,7 +1204,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>37</v>
@@ -1348,7 +1408,7 @@
     </row>
     <row r="17" spans="1:5" ht="36.75">
       <c r="A17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>38</v>
@@ -1414,52 +1474,52 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="24.75">
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>74</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>36</v>
+        <v>74</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>36</v>
+        <v>74</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>74</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="24.75">
       <c r="A23" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>36</v>
@@ -1467,7 +1527,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>38</v>
@@ -1484,7 +1544,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -1499,10 +1559,47 @@
         <v>36</v>
       </c>
     </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Yes" sqref="B2:B25 D2:D25">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Yes" sqref="D2:D20 D23:D27">
       <formula1>"yes, no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Yes" sqref="B2:B27 D21:D22">
+      <formula1>"yes, no, NA"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/controller/execution_controller.xlsx
+++ b/src/test/resources/controller/execution_controller.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="7" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="test_scenarios" sheetId="11" r:id="rId7"/>
     <sheet name="maxlife_questions" sheetId="12" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="85">
   <si>
     <t>Username</t>
   </si>
@@ -267,12 +267,21 @@
   </si>
   <si>
     <t>881321331</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>233221331</t>
+  </si>
+  <si>
+    <t>8132212136</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
@@ -354,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -367,7 +376,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -433,7 +441,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,10 +473,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,7 +507,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -676,7 +682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -711,7 +717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -753,11 +759,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -796,7 +802,7 @@
       <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -806,11 +812,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -835,10 +841,10 @@
       <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -848,11 +854,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -921,7 +927,7 @@
       <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -960,7 +966,7 @@
       <c r="A3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -996,8 +1002,43 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="B4" s="7"/>
-      <c r="E4" s="10"/>
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="7"/>
@@ -1065,7 +1106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1079,7 +1120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1119,11 +1160,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1132,9 +1173,11 @@
     <col min="3" max="3" width="36.5703125" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="12">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="12">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -1150,8 +1193,14 @@
       <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1167,8 +1216,14 @@
       <c r="E2" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="24.75">
+      <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24.75">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1184,8 +1239,14 @@
       <c r="E3" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="36.75">
+      <c r="F3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="36.75">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1201,8 +1262,14 @@
       <c r="E4" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>68</v>
       </c>
@@ -1218,8 +1285,14 @@
       <c r="E5" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1235,8 +1308,14 @@
       <c r="E6" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1252,8 +1331,14 @@
       <c r="E7" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="36.75">
+      <c r="F7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="36.75">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1269,8 +1354,14 @@
       <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="24.75">
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24.75">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1286,8 +1377,14 @@
       <c r="E9" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="36.75">
+      <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="36.75">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1303,8 +1400,14 @@
       <c r="E10" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="24.75">
+      <c r="F10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="24.75">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1320,8 +1423,14 @@
       <c r="E11" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="24.75">
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24.75">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -1337,8 +1446,14 @@
       <c r="E12" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="36.75">
+      <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="36.75">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1354,8 +1469,14 @@
       <c r="E13" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="36.75">
+      <c r="F13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="36.75">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1371,8 +1492,14 @@
       <c r="E14" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="24.75">
+      <c r="F14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="24.75">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1388,8 +1515,14 @@
       <c r="E15" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="24.75">
+      <c r="F15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24.75">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1405,8 +1538,14 @@
       <c r="E16" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="36.75">
+      <c r="F16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="36.75">
       <c r="A17" s="4" t="s">
         <v>69</v>
       </c>
@@ -1422,8 +1561,14 @@
       <c r="E17" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="48.75">
+      <c r="F17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="48.75">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
@@ -1439,8 +1584,14 @@
       <c r="E18" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="60.75">
+      <c r="F18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60.75">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
@@ -1456,8 +1607,14 @@
       <c r="E19" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="36.75">
+      <c r="F19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="36.75">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
@@ -1473,42 +1630,60 @@
       <c r="E20" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>76</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="24.75">
+      <c r="F22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="24.75">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -1524,8 +1699,14 @@
       <c r="E23" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -1541,8 +1722,14 @@
       <c r="E24" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
@@ -1558,8 +1745,14 @@
       <c r="E25" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
@@ -1575,8 +1768,14 @@
       <c r="E26" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
@@ -1592,13 +1791,19 @@
       <c r="E27" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="F27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Yes" sqref="D2:D20 D23:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Yes" sqref="D2:D20 D23:D27 F2:F20 F23:F27">
       <formula1>"yes, no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Yes" sqref="B2:B27 D21:D22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Yes" sqref="B2:B27 D21:D22 F21:F22">
       <formula1>"yes, no, NA"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/test/resources/controller/execution_controller.xlsx
+++ b/src/test/resources/controller/execution_controller.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="81">
   <si>
     <t>Username</t>
   </si>
@@ -236,9 +236,6 @@
     <t>HKJ3WU45KL</t>
   </si>
   <si>
-    <t>Case_01_Test</t>
-  </si>
-  <si>
     <t>Height (cms/foot)</t>
   </si>
   <si>
@@ -254,34 +251,25 @@
     <t>80</t>
   </si>
   <si>
-    <t>8892230630</t>
-  </si>
-  <si>
     <t>8892212636</t>
   </si>
   <si>
     <t>1965-10-12</t>
   </si>
   <si>
-    <t>8892212136</t>
-  </si>
-  <si>
-    <t>881321331</t>
-  </si>
-  <si>
     <t>Case 3</t>
   </si>
   <si>
-    <t>233221331</t>
-  </si>
-  <si>
-    <t>8132212136</t>
+    <t>MaxLifeCaseTest</t>
+  </si>
+  <si>
+    <t>2878745345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
@@ -441,7 +429,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,9 +461,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,6 +496,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -682,7 +672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -717,7 +707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -759,7 +749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -812,10 +802,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -854,11 +844,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -928,13 +918,13 @@
         <v>53</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>57</v>
@@ -956,92 +946,47 @@
         <v>54</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="B5" s="7"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" s="7"/>
@@ -1106,7 +1051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1120,11 +1065,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1143,7 +1088,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -1160,7 +1105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1194,7 +1139,7 @@
         <v>35</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>35</v>
@@ -1639,48 +1584,48 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="D21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="F21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="C22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="24.75">

--- a/src/test/resources/controller/execution_controller.xlsx
+++ b/src/test/resources/controller/execution_controller.xlsx
@@ -12,16 +12,15 @@
     <sheet name="doctor_signin" sheetId="5" r:id="rId3"/>
     <sheet name="vendor_signin" sheetId="6" r:id="rId4"/>
     <sheet name="new_case" sheetId="8" r:id="rId5"/>
-    <sheet name="vendor" sheetId="10" r:id="rId6"/>
-    <sheet name="test_scenarios" sheetId="11" r:id="rId7"/>
-    <sheet name="maxlife_questions" sheetId="12" r:id="rId8"/>
+    <sheet name="test_scenarios" sheetId="11" r:id="rId6"/>
+    <sheet name="maxlife_questions" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="79">
   <si>
     <t>Username</t>
   </si>
@@ -203,9 +202,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Case 2</t>
-  </si>
-  <si>
     <t>Dr. Abhijeet</t>
   </si>
   <si>
@@ -257,13 +253,10 @@
     <t>1965-10-12</t>
   </si>
   <si>
-    <t>Case 3</t>
-  </si>
-  <si>
     <t>MaxLifeCaseTest</t>
   </si>
   <si>
-    <t>2878745345</t>
+    <t>27123349794</t>
   </si>
 </sst>
 </file>
@@ -734,10 +727,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -765,7 +758,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -776,7 +769,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -787,10 +780,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -818,7 +811,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -845,10 +838,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -918,13 +911,13 @@
         <v>53</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>57</v>
@@ -939,17 +932,17 @@
         <v>56</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
         <v>54</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -977,16 +970,7 @@
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="B5" s="10"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="6"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" s="7"/>
@@ -1036,12 +1020,9 @@
     <row r="21" spans="2:2">
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="7"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G17">
       <formula1>"Male, Female"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1051,20 +1032,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1088,7 +1055,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -1104,25 +1071,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="12">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="12">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -1132,20 +1095,8 @@
       <c r="C1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1155,20 +1106,8 @@
       <c r="C2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="24.75">
+    </row>
+    <row r="3" spans="1:3" ht="24.75">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1178,20 +1117,8 @@
       <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="36.75">
+    </row>
+    <row r="4" spans="1:3" ht="36.75">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1201,22 +1128,10 @@
       <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>37</v>
@@ -1224,20 +1139,8 @@
       <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1247,20 +1150,8 @@
       <c r="C6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1270,20 +1161,8 @@
       <c r="C7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="36.75">
+    </row>
+    <row r="8" spans="1:3" ht="36.75">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1293,20 +1172,8 @@
       <c r="C8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="24.75">
+    </row>
+    <row r="9" spans="1:3" ht="24.75">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1316,20 +1183,8 @@
       <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="36.75">
+    </row>
+    <row r="10" spans="1:3" ht="36.75">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1339,20 +1194,8 @@
       <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="24.75">
+    </row>
+    <row r="11" spans="1:3" ht="24.75">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1362,20 +1205,8 @@
       <c r="C11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="24.75">
+    </row>
+    <row r="12" spans="1:3" ht="24.75">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -1385,20 +1216,8 @@
       <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="36.75">
+    </row>
+    <row r="13" spans="1:3" ht="36.75">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1408,20 +1227,8 @@
       <c r="C13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="36.75">
+    </row>
+    <row r="14" spans="1:3" ht="36.75">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1431,20 +1238,8 @@
       <c r="C14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="24.75">
+    </row>
+    <row r="15" spans="1:3" ht="24.75">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1454,20 +1249,8 @@
       <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="24.75">
+    </row>
+    <row r="16" spans="1:3" ht="24.75">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1477,22 +1260,10 @@
       <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="36.75">
+    </row>
+    <row r="17" spans="1:3" ht="36.75">
       <c r="A17" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>38</v>
@@ -1500,20 +1271,8 @@
       <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="48.75">
+    </row>
+    <row r="18" spans="1:3" ht="48.75">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
@@ -1523,20 +1282,8 @@
       <c r="C18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="60.75">
+    </row>
+    <row r="19" spans="1:3" ht="60.75">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
@@ -1546,20 +1293,8 @@
       <c r="C19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="36.75">
+    </row>
+    <row r="20" spans="1:3" ht="36.75">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
@@ -1569,66 +1304,30 @@
       <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="24.75">
+    </row>
+    <row r="23" spans="1:3" ht="24.75">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -1638,20 +1337,8 @@
       <c r="C23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -1661,20 +1348,8 @@
       <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
@@ -1684,20 +1359,8 @@
       <c r="C25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
@@ -1707,20 +1370,8 @@
       <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
@@ -1730,25 +1381,10 @@
       <c r="C27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Yes" sqref="D2:D20 D23:D27 F2:F20 F23:F27">
-      <formula1>"yes, no"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Yes" sqref="B2:B27 D21:D22 F21:F22">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Yes" sqref="B2:B27">
       <formula1>"yes, no, NA"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/test/resources/controller/execution_controller.xlsx
+++ b/src/test/resources/controller/execution_controller.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
   <si>
     <t>Username</t>
   </si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>TestNom</t>
-  </si>
-  <si>
-    <t>TestMaxLife</t>
   </si>
   <si>
     <t>Max Life</t>
@@ -727,10 +724,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -758,7 +755,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -769,7 +766,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -780,10 +777,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -811,7 +808,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -822,7 +819,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -840,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -911,38 +908,36 @@
         <v>53</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" t="s">
-        <v>56</v>
-      </c>
       <c r="J2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
         <v>54</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1036,7 +1031,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1055,7 +1050,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -1075,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1131,7 +1126,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>37</v>
@@ -1263,7 +1258,7 @@
     </row>
     <row r="17" spans="1:3" ht="36.75">
       <c r="A17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>38</v>
@@ -1307,24 +1302,24 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="C22" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24.75">

--- a/src/test/resources/controller/execution_controller.xlsx
+++ b/src/test/resources/controller/execution_controller.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="81">
   <si>
     <t>Username</t>
   </si>
@@ -253,7 +253,16 @@
     <t>MaxLifeCaseTest</t>
   </si>
   <si>
-    <t>27123349794</t>
+    <t>1245235223</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>TestName</t>
+  </si>
+  <si>
+    <t>201241256434</t>
   </si>
 </sst>
 </file>
@@ -837,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -908,9 +917,11 @@
         <v>53</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="D2" s="7" t="s">
         <v>74</v>
       </c>
@@ -941,16 +952,41 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="B3" s="10"/>
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="J3" s="5"/>
+      <c r="D3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="6"/>
+      <c r="L3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="10"/>
@@ -1070,7 +1106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/controller/execution_controller.xlsx
+++ b/src/test/resources/controller/execution_controller.xlsx
@@ -4,23 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="728" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="config" sheetId="7" r:id="rId1"/>
-    <sheet name="ops_signin" sheetId="4" r:id="rId2"/>
-    <sheet name="doctor_signin" sheetId="5" r:id="rId3"/>
-    <sheet name="vendor_signin" sheetId="6" r:id="rId4"/>
-    <sheet name="new_case" sheetId="8" r:id="rId5"/>
-    <sheet name="test_scenarios" sheetId="11" r:id="rId6"/>
-    <sheet name="maxlife_questions" sheetId="12" r:id="rId7"/>
+    <sheet name="ops_signin" sheetId="4" r:id="rId1"/>
+    <sheet name="doctor_signin" sheetId="5" r:id="rId2"/>
+    <sheet name="vendor_signin" sheetId="6" r:id="rId3"/>
+    <sheet name="new_case" sheetId="8" r:id="rId4"/>
+    <sheet name="test_scenarios" sheetId="11" r:id="rId5"/>
+    <sheet name="maxlife_questions" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="78">
   <si>
     <t>Username</t>
   </si>
@@ -37,18 +36,6 @@
     <t>demo@apollomunichinsurance.com</t>
   </si>
   <si>
-    <t>BrowserName</t>
-  </si>
-  <si>
-    <t>ApplicationURL</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>https://b2btest.docsapp.in/webviews/telemerdashboardreact/?#!login</t>
-  </si>
-  <si>
     <t>Test Scenario</t>
   </si>
   <si>
@@ -250,9 +237,6 @@
     <t>1965-10-12</t>
   </si>
   <si>
-    <t>MaxLifeCaseTest</t>
-  </si>
-  <si>
     <t>1245235223</t>
   </si>
   <si>
@@ -262,7 +246,13 @@
     <t>TestName</t>
   </si>
   <si>
-    <t>201241256434</t>
+    <t>MaxLifeValidCaseTest</t>
+  </si>
+  <si>
+    <t>MaxLifeInvalidCaseTest</t>
+  </si>
+  <si>
+    <t>212689576312</t>
   </si>
 </sst>
 </file>
@@ -672,41 +662,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="66.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -722,7 +677,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -733,10 +688,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -747,12 +702,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -764,7 +719,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -775,7 +730,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -786,10 +741,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -800,12 +755,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -817,7 +772,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -828,21 +783,36 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
@@ -870,122 +840,122 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1062,12 +1032,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1078,19 +1048,51 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1102,11 +1104,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1118,299 +1120,299 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="12">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24.75">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.75">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="36.75">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24.75">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="36.75">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.75">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.75">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="36.75">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="36.75">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24.75">
       <c r="A15" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24.75">
       <c r="A16" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36.75">
       <c r="A17" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="48.75">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60.75">
       <c r="A19" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="36.75">
       <c r="A20" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24.75">
       <c r="A23" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C27" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
